--- a/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
+++ b/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,85 +22,121 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>002064</t>
+  </si>
+  <si>
+    <t>260115</t>
+  </si>
+  <si>
     <t>007713</t>
   </si>
   <si>
-    <t>260115</t>
+    <t>002244</t>
+  </si>
+  <si>
+    <t>001709</t>
   </si>
   <si>
     <t>410009</t>
   </si>
   <si>
-    <t>001709</t>
-  </si>
-  <si>
-    <t>002064</t>
-  </si>
-  <si>
-    <t>002244</t>
+    <t>华富产业升级灵活配置混合</t>
+  </si>
+  <si>
+    <t>景顺长城中小盘混合</t>
   </si>
   <si>
     <t>华富科技动能混合</t>
   </si>
   <si>
-    <t>景顺长城中小盘混合</t>
+    <t>景顺长城低碳科技主题灵活配置混合</t>
+  </si>
+  <si>
+    <t>华富物联世界灵活配置混合</t>
   </si>
   <si>
     <t>华富量子生命力混合</t>
   </si>
   <si>
-    <t>华富物联世界灵活配置混合</t>
-  </si>
-  <si>
-    <t>华富产业升级灵活配置混合</t>
-  </si>
-  <si>
-    <t>景顺长城低碳科技主题灵活配置混合</t>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>86.64</t>
+  </si>
+  <si>
+    <t>93.04</t>
   </si>
   <si>
     <t>89.54</t>
   </si>
   <si>
-    <t>93.04</t>
+    <t>92.71</t>
+  </si>
+  <si>
+    <t>88.24</t>
   </si>
   <si>
     <t>90.39</t>
   </si>
   <si>
-    <t>88.24</t>
-  </si>
-  <si>
-    <t>86.64</t>
-  </si>
-  <si>
-    <t>92.71</t>
+    <t>5.54</t>
+  </si>
+  <si>
+    <t>6.63</t>
   </si>
   <si>
     <t>6.34</t>
   </si>
   <si>
-    <t>6.63</t>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>6.18</t>
   </si>
   <si>
     <t>4.94</t>
   </si>
   <si>
-    <t>6.18</t>
-  </si>
-  <si>
-    <t>5.54</t>
-  </si>
-  <si>
-    <t>5.81</t>
+    <t>0.1673</t>
+  </si>
+  <si>
+    <t>0.1014</t>
+  </si>
+  <si>
+    <t>0.0970</t>
+  </si>
+  <si>
+    <t>0.0523</t>
+  </si>
+  <si>
+    <t>0.0117</t>
+  </si>
+  <si>
+    <t>0.0094</t>
   </si>
 </sst>
 </file>
@@ -458,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,116 +516,152 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="F2">
-        <v>4</v>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4">
-        <v>7</v>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5">
-        <v>3</v>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -597,8 +669,14 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7">
-        <v>4</v>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
+++ b/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
@@ -1,174 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002064</t>
-  </si>
-  <si>
-    <t>260115</t>
-  </si>
-  <si>
-    <t>007713</t>
-  </si>
-  <si>
-    <t>002244</t>
-  </si>
-  <si>
-    <t>001709</t>
-  </si>
-  <si>
-    <t>410009</t>
-  </si>
-  <si>
-    <t>华富产业升级灵活配置混合</t>
-  </si>
-  <si>
-    <t>景顺长城中小盘混合</t>
-  </si>
-  <si>
-    <t>华富科技动能混合</t>
-  </si>
-  <si>
-    <t>景顺长城低碳科技主题灵活配置混合</t>
-  </si>
-  <si>
-    <t>华富物联世界灵活配置混合</t>
-  </si>
-  <si>
-    <t>华富量子生命力混合</t>
-  </si>
-  <si>
-    <t>3.02</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>86.64</t>
-  </si>
-  <si>
-    <t>93.04</t>
-  </si>
-  <si>
-    <t>89.54</t>
-  </si>
-  <si>
-    <t>92.71</t>
-  </si>
-  <si>
-    <t>88.24</t>
-  </si>
-  <si>
-    <t>90.39</t>
-  </si>
-  <si>
-    <t>5.54</t>
-  </si>
-  <si>
-    <t>6.63</t>
-  </si>
-  <si>
-    <t>6.34</t>
-  </si>
-  <si>
-    <t>5.81</t>
-  </si>
-  <si>
-    <t>6.18</t>
-  </si>
-  <si>
-    <t>4.94</t>
-  </si>
-  <si>
-    <t>0.1673</t>
-  </si>
-  <si>
-    <t>0.1014</t>
-  </si>
-  <si>
-    <t>0.0970</t>
-  </si>
-  <si>
-    <t>0.0523</t>
-  </si>
-  <si>
-    <t>0.0117</t>
-  </si>
-  <si>
-    <t>0.0094</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -493,193 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
+++ b/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
+++ b/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
+++ b/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.13</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1091,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
+++ b/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.11</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.13</v>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1460,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
+++ b/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.17</v>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.11</v>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1509,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.13</v>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1547,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1585,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
+++ b/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002064</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华富产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1673</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="D3" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1014</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D5" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007713</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华富科技动能混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0970</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0523</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001709</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华富物联世界灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>410009</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华富量子生命力混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.3607</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,378 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>75.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.1821</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +1083,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -923,36 +1113,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012930</t>
+          <t>002692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值先锋股票</t>
+          <t>富国创新科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.77</t>
+          <t>40.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1253</t>
+          <t>1.1216</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,7 +1499,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1263,112 +1529,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002692</t>
+          <t>012930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国创新科技混合A</t>
+          <t>中庚价值先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.49</t>
+          <t>40.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1216</t>
+          <t>1.1253</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011120</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国创新科技混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>62.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,7 +1593,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1433,36 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3607</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1471,378 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.03</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1821</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>72.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1251</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005310</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发电子信息传媒产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0946</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0494</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>72.45</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>76.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002630</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>43.20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>43.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010236</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发电子信息传媒产业精选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1856,128 +1704,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.44</v>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
+++ b/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.11</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.13</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1056,7 +1167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1226,7 +1337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1472,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1566,7 +1677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1698,7 +1809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
+++ b/数据整理/stocks/A股/上证主板/603920-世运电路.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.93</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.11</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.13</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1337,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1583,7 +1808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1677,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
